--- a/ch04/models/mob_health_testing/data/income-model.xlsx
+++ b/ch04/models/mob_health_testing/data/income-model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1680" windowWidth="27760" windowHeight="16320" tabRatio="500"/>
+    <workbookView xWindow="8820" yWindow="1660" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="income-model" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>coeff</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>type1</t>
+  </si>
+  <si>
+    <t>income</t>
   </si>
 </sst>
 </file>
@@ -369,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -399,10 +402,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>-1.073</v>
+        <v>-1.103402</v>
       </c>
       <c r="D2" s="1">
-        <v>-1.1080000000000001</v>
+        <v>-1.0820339999999999</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -413,10 +416,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>2.1779999999999999</v>
+        <v>2.238826</v>
       </c>
       <c r="D3" s="1">
-        <v>1.125</v>
+        <v>1.1038019999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -427,10 +430,24 @@
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>1.083</v>
+        <v>1.120015</v>
       </c>
       <c r="D4" s="1">
-        <v>2.2229999999999999</v>
+        <v>2.183039</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
